--- a/analysis/cuentas_informes.xlsx
+++ b/analysis/cuentas_informes.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367A94A8-9412-48F7-8B48-B1C07FAEFED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E5AE31-6A98-433C-B61C-33ABA9168B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{22E69CBB-8A70-4C1D-A169-1F1C26370E48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22E69CBB-8A70-4C1D-A169-1F1C26370E48}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cuentas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -686,18 +686,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C78000-EE32-4613-AE5F-B2EA88FBC406}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -719,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -730,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -741,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -752,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -763,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -774,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -785,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -796,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -807,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -818,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -829,7 +827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -840,7 +838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -851,7 +849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -862,7 +860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -873,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -884,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -895,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -906,7 +904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -917,7 +915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -928,7 +926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -939,7 +937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -950,7 +948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -961,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -972,7 +970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -983,7 +981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -994,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1027,7 +1025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -1082,7 +1080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1104,7 +1102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1126,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1159,7 +1157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -1170,7 +1168,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1181,7 +1179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
